--- a/src/test/java/TestData/DataSheet_Products.xlsx
+++ b/src/test/java/TestData/DataSheet_Products.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t462204\eclipse-workspace\PSPrint\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31ADD2F-D9FF-4FA6-A791-77884A5CF119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C7049-D853-4C4E-B40F-7CD7897E7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Available Options" sheetId="11" r:id="rId1"/>
     <sheet name="Login" sheetId="3" r:id="rId2"/>
     <sheet name="Invitations" sheetId="16" r:id="rId3"/>
-    <sheet name="RollStickers" sheetId="14" r:id="rId4"/>
-    <sheet name="PostCards" sheetId="12" r:id="rId5"/>
-    <sheet name="GreetingCards" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
+    <sheet name="RollStickers" sheetId="14" r:id="rId5"/>
+    <sheet name="PostCards" sheetId="12" r:id="rId6"/>
+    <sheet name="GreetingCards" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Options'!$A$4:$B$5</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
   <si>
     <t>Size</t>
   </si>
@@ -258,19 +259,34 @@
   </si>
   <si>
     <t>Full Color Both Sides</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -435,48 +451,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4205,8 +4222,1383 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8217" r:id="rId4" name="Control 25">
+        <control shapeId="8260" r:id="rId4" name="Control 68">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8260" r:id="rId4" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8259" r:id="rId6" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8259" r:id="rId6" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8258" r:id="rId8" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8258" r:id="rId8" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8257" r:id="rId9" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8257" r:id="rId9" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8256" r:id="rId10" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8256" r:id="rId10" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8255" r:id="rId11" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8255" r:id="rId11" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8254" r:id="rId12" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8254" r:id="rId12" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8253" r:id="rId13" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8253" r:id="rId13" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8252" r:id="rId14" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8252" r:id="rId14" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8249" r:id="rId15" name="HTMLSelect55">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8249" r:id="rId15" name="HTMLSelect55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8248" r:id="rId17" name="HTMLSelect54">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8248" r:id="rId17" name="HTMLSelect54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8247" r:id="rId18" name="HTMLSelect53">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8247" r:id="rId18" name="HTMLSelect53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8246" r:id="rId19" name="HTMLSelect52">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8246" r:id="rId19" name="HTMLSelect52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8245" r:id="rId20" name="HTMLSelect51">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8245" r:id="rId20" name="HTMLSelect51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8244" r:id="rId21" name="HTMLSelect50">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8244" r:id="rId21" name="HTMLSelect50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8243" r:id="rId22" name="HTMLSelect49">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8243" r:id="rId22" name="HTMLSelect49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8242" r:id="rId23" name="HTMLSelect48">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8242" r:id="rId23" name="HTMLSelect48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8241" r:id="rId25" name="HTMLSelect47">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8241" r:id="rId25" name="HTMLSelect47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8240" r:id="rId26" name="HTMLSelect46">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8240" r:id="rId26" name="HTMLSelect46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8239" r:id="rId27" name="HTMLSelect45">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8239" r:id="rId27" name="HTMLSelect45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8238" r:id="rId28" name="HTMLSelect44">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8238" r:id="rId28" name="HTMLSelect44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8237" r:id="rId29" name="HTMLSelect43">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8237" r:id="rId29" name="HTMLSelect43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8236" r:id="rId30" name="HTMLSelect42">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8236" r:id="rId30" name="HTMLSelect42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8228" r:id="rId31" name="HTMLSelect34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8228" r:id="rId31" name="HTMLSelect34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8227" r:id="rId32" name="HTMLSelect33">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8227" r:id="rId32" name="HTMLSelect33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8226" r:id="rId33" name="HTMLSelect32">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8226" r:id="rId33" name="HTMLSelect32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8225" r:id="rId34" name="HTMLSelect31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8225" r:id="rId34" name="HTMLSelect31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8224" r:id="rId35" name="HTMLSelect30">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8224" r:id="rId35" name="HTMLSelect30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8223" r:id="rId36" name="HTMLSelect29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8223" r:id="rId36" name="HTMLSelect29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8222" r:id="rId37" name="HTMLSelect28">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8222" r:id="rId37" name="HTMLSelect28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8221" r:id="rId38" name="HTMLSelect27">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8221" r:id="rId38" name="HTMLSelect27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8220" r:id="rId39" name="HTMLSelect26">
+          <controlPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8220" r:id="rId39" name="HTMLSelect26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8218" r:id="rId40" name="HTMLSelect24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8218" r:id="rId40" name="HTMLSelect24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId41" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8193" r:id="rId41" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId43" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId44">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>2171700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId43" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId45" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>2571750</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId45" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId47" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId48">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId47" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8197" r:id="rId49" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId50">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8197" r:id="rId49" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8198" r:id="rId51" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1571625</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8198" r:id="rId51" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8199" r:id="rId53" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId54">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1438275</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8199" r:id="rId53" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8201" r:id="rId55" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId56">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>2438400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8201" r:id="rId55" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8202" r:id="rId57" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>2571750</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8202" r:id="rId57" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8203" r:id="rId58" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId59">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2505075</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8203" r:id="rId58" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8204" r:id="rId60" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId61">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>2638425</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8204" r:id="rId60" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8205" r:id="rId62" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1571625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8205" r:id="rId62" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8206" r:id="rId63" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId50">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8206" r:id="rId63" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8207" r:id="rId64" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1571625</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8207" r:id="rId64" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8208" r:id="rId65" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId54">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1438275</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8208" r:id="rId65" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8210" r:id="rId66" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId67">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>2667000</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8210" r:id="rId66" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8211" r:id="rId68" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8211" r:id="rId68" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8212" r:id="rId69" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8212" r:id="rId69" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8213" r:id="rId70" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId71">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>3181350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8213" r:id="rId70" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8214" r:id="rId72" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId73">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1552575</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8214" r:id="rId72" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8215" r:id="rId74" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId75">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8215" r:id="rId74" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8216" r:id="rId76" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId77">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1895475</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8216" r:id="rId76" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8217" r:id="rId78" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -4225,1382 +5617,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8217" r:id="rId4" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8216" r:id="rId6" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1895475</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8216" r:id="rId6" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8215" r:id="rId8" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8215" r:id="rId8" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8214" r:id="rId10" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1552575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8214" r:id="rId10" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8213" r:id="rId12" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>3181350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8213" r:id="rId12" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8212" r:id="rId14" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8212" r:id="rId14" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8211" r:id="rId16" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8211" r:id="rId16" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8210" r:id="rId17" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>2667000</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8210" r:id="rId17" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8208" r:id="rId19" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1438275</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8208" r:id="rId19" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8207" r:id="rId21" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1571625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8207" r:id="rId21" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8206" r:id="rId23" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId24">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8206" r:id="rId23" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8205" r:id="rId25" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1571625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8205" r:id="rId25" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8204" r:id="rId26" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>2638425</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8204" r:id="rId26" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8203" r:id="rId28" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2505075</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8203" r:id="rId28" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8202" r:id="rId30" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>2571750</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8202" r:id="rId30" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId32" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>2438400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8201" r:id="rId32" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8199" r:id="rId34" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1438275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8199" r:id="rId34" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId35" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1571625</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId35" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId36" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId24">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId36" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId37" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId37" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId39" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>2571750</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId39" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId40" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>2171700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId40" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId42" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8193" r:id="rId42" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8218" r:id="rId44" name="HTMLSelect24">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8218" r:id="rId44" name="HTMLSelect24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8220" r:id="rId45" name="HTMLSelect26">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8220" r:id="rId45" name="HTMLSelect26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8221" r:id="rId47" name="HTMLSelect27">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8221" r:id="rId47" name="HTMLSelect27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8222" r:id="rId48" name="HTMLSelect28">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8222" r:id="rId48" name="HTMLSelect28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8223" r:id="rId49" name="HTMLSelect29">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8223" r:id="rId49" name="HTMLSelect29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8224" r:id="rId50" name="HTMLSelect30">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8224" r:id="rId50" name="HTMLSelect30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8225" r:id="rId51" name="HTMLSelect31">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8225" r:id="rId51" name="HTMLSelect31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8226" r:id="rId52" name="HTMLSelect32">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8226" r:id="rId52" name="HTMLSelect32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8227" r:id="rId53" name="HTMLSelect33">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8227" r:id="rId53" name="HTMLSelect33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8228" r:id="rId54" name="HTMLSelect34">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8228" r:id="rId54" name="HTMLSelect34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8236" r:id="rId55" name="HTMLSelect42">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8236" r:id="rId55" name="HTMLSelect42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8237" r:id="rId56" name="HTMLSelect43">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8237" r:id="rId56" name="HTMLSelect43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8238" r:id="rId57" name="HTMLSelect44">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8238" r:id="rId57" name="HTMLSelect44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8239" r:id="rId58" name="HTMLSelect45">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8239" r:id="rId58" name="HTMLSelect45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8240" r:id="rId59" name="HTMLSelect46">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8240" r:id="rId59" name="HTMLSelect46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8241" r:id="rId60" name="HTMLSelect47">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8241" r:id="rId60" name="HTMLSelect47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8242" r:id="rId61" name="HTMLSelect48">
-          <controlPr defaultSize="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8242" r:id="rId61" name="HTMLSelect48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8243" r:id="rId62" name="HTMLSelect49">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8243" r:id="rId62" name="HTMLSelect49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8244" r:id="rId63" name="HTMLSelect50">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8244" r:id="rId63" name="HTMLSelect50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8245" r:id="rId64" name="HTMLSelect51">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8245" r:id="rId64" name="HTMLSelect51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8246" r:id="rId65" name="HTMLSelect52">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8246" r:id="rId65" name="HTMLSelect52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8247" r:id="rId66" name="HTMLSelect53">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8247" r:id="rId66" name="HTMLSelect53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8248" r:id="rId67" name="HTMLSelect54">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8248" r:id="rId67" name="HTMLSelect54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8249" r:id="rId68" name="HTMLSelect55">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8249" r:id="rId68" name="HTMLSelect55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8252" r:id="rId69" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8252" r:id="rId69" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8253" r:id="rId71" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8253" r:id="rId71" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8254" r:id="rId72" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8254" r:id="rId72" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8255" r:id="rId73" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8255" r:id="rId73" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8256" r:id="rId74" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8256" r:id="rId74" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8257" r:id="rId75" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8257" r:id="rId75" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8258" r:id="rId76" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8258" r:id="rId76" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8259" r:id="rId77" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8259" r:id="rId77" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8260" r:id="rId78" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8260" r:id="rId78" name="Control 68"/>
+        <control shapeId="8217" r:id="rId78" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5648,146 +5665,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A340505-48F8-4988-AC90-EB912422446D}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="M2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="29">
+      <c r="N2" s="29">
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="M3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="29">
+      <c r="N3" s="29">
         <v>686</v>
       </c>
     </row>
@@ -5798,6 +5825,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C2B54-1F65-4C2A-B7E4-C66CFF59ABC0}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="29">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC7E83-8591-47EC-83F1-F63F99FB1E09}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5869,7 +5952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7585B2B9-8E33-49CE-913E-3512F1AC5917}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5954,11 +6037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1047E6-230B-45BD-B838-123907E3B2C7}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/TestData/DataSheet_Products.xlsx
+++ b/src/test/java/TestData/DataSheet_Products.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t462204\eclipse-workspace\PSPrint\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C7049-D853-4C4E-B40F-7CD7897E7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ECE527-EE35-4C35-86AC-C8AFF6FD9890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Available Options" sheetId="11" r:id="rId1"/>
     <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="Invitations" sheetId="16" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
+    <sheet name="GreetingCards" sheetId="13" r:id="rId3"/>
+    <sheet name="Invitations" sheetId="16" r:id="rId4"/>
     <sheet name="RollStickers" sheetId="14" r:id="rId5"/>
     <sheet name="PostCards" sheetId="12" r:id="rId6"/>
-    <sheet name="GreetingCards" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Options'!$A$4:$B$5</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
   <si>
     <t>Size</t>
   </si>
@@ -268,19 +267,46 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>DeliveryMethod</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -451,49 +477,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4055,7 +4084,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -4076,7 +4105,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="12" t="s">
         <v>44</v>
       </c>
@@ -4095,7 +4124,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="12" t="s">
         <v>45</v>
       </c>
@@ -4114,7 +4143,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
@@ -4133,7 +4162,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -4152,7 +4181,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="12" t="s">
         <v>48</v>
       </c>
@@ -4171,7 +4200,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
@@ -4190,7 +4219,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
@@ -5664,11 +5693,140 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A340505-48F8-4988-AC90-EB912422446D}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1047E6-230B-45BD-B838-123907E3B2C7}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="22.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="6" customWidth="1"/>
+    <col min="10" max="11" width="20.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="29">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A340505-48F8-4988-AC90-EB912422446D}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5686,7 +5844,7 @@
     <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>75</v>
       </c>
@@ -5714,24 +5872,27 @@
       <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5758,24 +5919,27 @@
       <c r="I2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="29">
+      <c r="O2" s="29">
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5802,19 +5966,22 @@
       <c r="I3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="29">
+      <c r="O3" s="29">
         <v>686</v>
       </c>
     </row>
@@ -5824,126 +5991,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0C2B54-1F65-4C2A-B7E4-C66CFF59ABC0}">
-  <dimension ref="A1:M1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC7E83-8591-47EC-83F1-F63F99FB1E09}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="29">
-        <v>686</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC7E83-8591-47EC-83F1-F63F99FB1E09}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="I1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="29">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -5954,201 +6096,122 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7585B2B9-8E33-49CE-913E-3512F1AC5917}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="24.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="L1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>38</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="29">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1047E6-230B-45BD-B838-123907E3B2C7}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="22.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="5">
-        <v>500</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="29">
-        <v>686</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/java/TestData/DataSheet_Products.xlsx
+++ b/src/test/java/TestData/DataSheet_Products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t462204\eclipse-workspace\PSPrint\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ECE527-EE35-4C35-86AC-C8AFF6FD9890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C8178-4A66-4D9A-AD57-0D3C157023D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Available Options" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="79">
   <si>
     <t>Size</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>cmp_uat@psptesting.com</t>
-  </si>
-  <si>
-    <t>Bric@2018</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Mailing Services</t>
   </si>
   <si>
-    <t>7" x 10"(folds to 7" x 5")</t>
-  </si>
-  <si>
     <t>No White Envelopes</t>
   </si>
   <si>
@@ -230,27 +221,6 @@
     <t>1 Business day</t>
   </si>
   <si>
-    <t>Holder</t>
-  </si>
-  <si>
-    <t>CardType</t>
-  </si>
-  <si>
-    <t>CardNumber</t>
-  </si>
-  <si>
-    <t>Cvv</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
     <t>13 pt. 100% Recycled Matte Cover</t>
   </si>
   <si>
@@ -276,6 +246,30 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>Invitation Cards</t>
+  </si>
+  <si>
+    <t>Roll Stickers</t>
+  </si>
+  <si>
+    <t>greeting_card_6x85_1.pdf</t>
+  </si>
+  <si>
+    <t>6" x 8.5"(folds to 6" x 4.25")</t>
+  </si>
+  <si>
+    <t>invitation_5x7.pdf</t>
+  </si>
+  <si>
+    <t>m904x6.pdf</t>
+  </si>
+  <si>
+    <t>ravi.gupta@deluxe.com</t>
+  </si>
+  <si>
+    <t>Ravi1234</t>
   </si>
 </sst>
 </file>
@@ -418,18 +412,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,10 +467,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -496,32 +484,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3848,7 +3835,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3867,66 +3854,66 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3934,307 +3921,307 @@
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5658,7 +5645,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5669,24 +5656,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>5</v>
+      <c r="B1" s="38" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>4</v>
+      <c r="A2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0A732624-3B3D-4C0E-A780-DAA923B3CB06}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5C7439-2E2A-4180-AD63-D6814D3CEAA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5694,295 +5681,252 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1047E6-230B-45BD-B838-123907E3B2C7}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="22.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="20.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A340505-48F8-4988-AC90-EB912422446D}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="22.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="6" customWidth="1"/>
-    <col min="10" max="11" width="20.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="26.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="I2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="29">
-        <v>686</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A340505-48F8-4988-AC90-EB912422446D}">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="29">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="29">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -5993,99 +5937,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC7E83-8591-47EC-83F1-F63F99FB1E09}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="19.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="29">
-        <v>686</v>
+      <c r="I2" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6096,118 +6022,102 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7585B2B9-8E33-49CE-913E-3512F1AC5917}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="24.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="24.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="29">
-        <v>686</v>
+      <c r="L2" s="23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
